--- a/sonuc_zero_curve_full.xlsx
+++ b/sonuc_zero_curve_full.xlsx
@@ -483,19 +483,19 @@
         <v>65</v>
       </c>
       <c r="C2" t="n">
-        <v>33.12086031404862</v>
+        <v>33.19534962245937</v>
       </c>
       <c r="D2" t="n">
-        <v>33.94720106389831</v>
+        <v>33.22515733822964</v>
       </c>
       <c r="E2" t="n">
-        <v>33.94580809398499</v>
+        <v>33.59780218959867</v>
       </c>
       <c r="F2" t="n">
-        <v>33.263432712319</v>
+        <v>33.1483437440398</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9443027980947662</v>
+        <v>0.944184525918138</v>
       </c>
     </row>
     <row r="3">
@@ -506,19 +506,19 @@
         <v>154</v>
       </c>
       <c r="C3" t="n">
-        <v>35.45663280924945</v>
+        <v>35.51415410264339</v>
       </c>
       <c r="D3" t="n">
-        <v>35.39998934516032</v>
+        <v>35.46433120811472</v>
       </c>
       <c r="E3" t="n">
-        <v>35.41592853419117</v>
+        <v>35.20884598061959</v>
       </c>
       <c r="F3" t="n">
         <v>35.41494966270347</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8698694084412717</v>
+        <v>0.8696858083299119</v>
       </c>
     </row>
     <row r="4">
@@ -529,19 +529,19 @@
         <v>246</v>
       </c>
       <c r="C4" t="n">
-        <v>37.34640942860348</v>
+        <v>37.31536395404247</v>
       </c>
       <c r="D4" t="n">
-        <v>36.91685233807736</v>
+        <v>37.34898137693745</v>
       </c>
       <c r="E4" t="n">
-        <v>36.93560359597733</v>
+        <v>36.87419461852885</v>
       </c>
       <c r="F4" t="n">
-        <v>37.34452287076249</v>
+        <v>37.34511031203388</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7989105623164831</v>
+        <v>0.7990441324854073</v>
       </c>
     </row>
     <row r="5">
@@ -552,19 +552,19 @@
         <v>307</v>
       </c>
       <c r="C5" t="n">
-        <v>38.3584696309719</v>
+        <v>38.27453692189008</v>
       </c>
       <c r="D5" t="n">
-        <v>37.93106401984375</v>
+        <v>38.35758207212083</v>
       </c>
       <c r="E5" t="n">
-        <v>37.94321423477033</v>
+        <v>37.97839317192522</v>
       </c>
       <c r="F5" t="n">
-        <v>38.16885322401802</v>
+        <v>38.16941222512823</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7560684825373321</v>
+        <v>0.7564722495990873</v>
       </c>
     </row>
     <row r="6">
@@ -575,19 +575,19 @@
         <v>368</v>
       </c>
       <c r="C6" t="n">
-        <v>39.16626727233633</v>
+        <v>39.0964282947774</v>
       </c>
       <c r="D6" t="n">
-        <v>38.95202602292708</v>
+        <v>39.17400939748036</v>
       </c>
       <c r="E6" t="n">
-        <v>38.95082487356333</v>
+        <v>39.08259172532158</v>
       </c>
       <c r="F6" t="n">
-        <v>38.99318357727355</v>
+        <v>38.99371413822259</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7169066132420724</v>
+        <v>0.7172686871966387</v>
       </c>
     </row>
     <row r="7">
@@ -598,19 +598,19 @@
         <v>425</v>
       </c>
       <c r="C7" t="n">
-        <v>39.76593497218037</v>
+        <v>39.76780319616172</v>
       </c>
       <c r="D7" t="n">
-        <v>39.91214056614385</v>
+        <v>39.7632162686326</v>
       </c>
       <c r="E7" t="n">
-        <v>39.89236268358301</v>
+        <v>40.11438381620015</v>
       </c>
       <c r="F7" t="n">
-        <v>39.76345948113527</v>
+        <v>39.76396346685174</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6835139130618181</v>
+        <v>0.6835037502643873</v>
       </c>
     </row>
   </sheetData>
@@ -624,7 +624,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -652,27 +652,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>REPO</t>
+          <t>TAHVIL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C2" t="n">
-        <v>33.57499999999958</v>
+        <v>33.24835687581833</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TAHVIL</t>
+          <t>BONO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>33.24835687581833</v>
+        <v>33.94844879826807</v>
       </c>
     </row>
     <row r="4">
@@ -682,23 +682,23 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89</v>
+        <v>187</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94844879826807</v>
+        <v>36.15948087080145</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BONO</t>
+          <t>TAHVIL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="C5" t="n">
-        <v>36.15948087080145</v>
+        <v>37.30457087368498</v>
       </c>
     </row>
     <row r="6">
@@ -708,23 +708,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>243</v>
+        <v>425</v>
       </c>
       <c r="C6" t="n">
-        <v>37.30398203371713</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>TAHVIL</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>425</v>
-      </c>
-      <c r="C7" t="n">
-        <v>39.76345948113527</v>
+        <v>39.76396346685174</v>
       </c>
     </row>
   </sheetData>
